--- a/teams_final.xlsx
+++ b/teams_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\volleyalex_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92879BE-0CA1-4DF9-9511-09AD613EE075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07675469-CD64-4B2B-928D-BC006F33B7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,5 +1012,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/teams_final.xlsx
+++ b/teams_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\volleyalex_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07675469-CD64-4B2B-928D-BC006F33B7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62767B9-D0AF-44B8-8C8D-00F5BD6C560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,18 +88,6 @@
     <t>Team D براعم بنين تحت 9 سنوات</t>
   </si>
   <si>
-    <t>Team A براعم بنين تحت 10 سنوات</t>
-  </si>
-  <si>
-    <t>Team B براعم بنين تحت 10 سنوات</t>
-  </si>
-  <si>
-    <t>Team C براعم بنين تحت 10 سنوات</t>
-  </si>
-  <si>
-    <t>Team D براعم بنين تحت 10 سنوات</t>
-  </si>
-  <si>
     <t>Team A براعم بنين تحت 11 سنة</t>
   </si>
   <si>
@@ -179,6 +167,18 @@
   </si>
   <si>
     <t>age_categories</t>
+  </si>
+  <si>
+    <t>سموحة</t>
+  </si>
+  <si>
+    <t>أصحاب الجياد</t>
+  </si>
+  <si>
+    <t>سبورتنج</t>
+  </si>
+  <si>
+    <t>المؤسسة</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -633,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -721,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -765,7 +765,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -795,10 +795,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,10 +806,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,10 +817,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -828,10 +828,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,10 +839,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -850,10 +850,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,10 +861,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -872,10 +872,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -883,10 +883,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -894,10 +894,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -905,10 +905,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -916,10 +916,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -927,10 +927,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,10 +938,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -949,10 +949,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -960,10 +960,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -971,10 +971,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -982,10 +982,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -993,10 +993,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1004,10 +1004,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
